--- a/abitiSfilata2018.xlsx
+++ b/abitiSfilata2018.xlsx
@@ -476,7 +476,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="71">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -641,14 +641,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -673,7 +665,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -694,10 +694,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -844,19 +840,19 @@
   </sheetPr>
   <dimension ref="A1:G111"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A40" activeCellId="0" sqref="39:40"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A38" activeCellId="0" sqref="37:38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="5.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="26.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="16.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="8.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="5.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="25.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="16.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="7.98"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1439,37 +1435,37 @@
       <c r="E36" s="21"/>
       <c r="F36" s="28"/>
     </row>
-    <row r="37" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="41" t="n">
+    <row r="37" s="25" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="36" t="n">
         <v>35</v>
       </c>
-      <c r="B37" s="30" t="s">
+      <c r="B37" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="31" t="n">
+      <c r="C37" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="D37" s="42" t="s">
+      <c r="D37" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="E37" s="33"/>
-      <c r="F37" s="34"/>
-    </row>
-    <row r="38" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="41" t="n">
+      <c r="E37" s="21"/>
+      <c r="F37" s="28"/>
+    </row>
+    <row r="38" s="25" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="36" t="n">
         <v>36</v>
       </c>
-      <c r="B38" s="30" t="s">
+      <c r="B38" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C38" s="31" t="n">
+      <c r="C38" s="27" t="n">
         <v>4</v>
       </c>
-      <c r="D38" s="42" t="s">
+      <c r="D38" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="E38" s="33"/>
-      <c r="F38" s="34"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="28"/>
     </row>
     <row r="39" s="25" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="36" t="n">
@@ -1599,43 +1595,43 @@
       <c r="E46" s="5"/>
       <c r="F46" s="34"/>
     </row>
-    <row r="47" s="46" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="43" t="n">
+    <row r="47" s="44" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="41" t="n">
         <v>45</v>
       </c>
       <c r="B47" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C47" s="44" t="n">
+      <c r="C47" s="42" t="n">
         <v>1</v>
       </c>
       <c r="D47" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="E47" s="43"/>
-      <c r="F47" s="45"/>
-    </row>
-    <row r="48" s="46" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="47" t="n">
+      <c r="E47" s="41"/>
+      <c r="F47" s="43"/>
+    </row>
+    <row r="48" s="44" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="45" t="n">
         <v>46</v>
       </c>
       <c r="B48" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="C48" s="48" t="n">
+      <c r="C48" s="46" t="n">
         <v>2</v>
       </c>
       <c r="D48" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="E48" s="47"/>
-      <c r="F48" s="45"/>
+      <c r="E48" s="45"/>
+      <c r="F48" s="43"/>
     </row>
     <row r="49" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="29" t="n">
         <v>47</v>
       </c>
-      <c r="B49" s="41" t="s">
+      <c r="B49" s="47" t="s">
         <v>34</v>
       </c>
       <c r="C49" s="31" t="n">
@@ -1651,7 +1647,7 @@
       <c r="A50" s="29" t="n">
         <v>48</v>
       </c>
-      <c r="B50" s="41" t="s">
+      <c r="B50" s="47" t="s">
         <v>34</v>
       </c>
       <c r="C50" s="31" t="n">
@@ -1667,7 +1663,7 @@
       <c r="A51" s="29" t="n">
         <v>49</v>
       </c>
-      <c r="B51" s="41" t="s">
+      <c r="B51" s="47" t="s">
         <v>34</v>
       </c>
       <c r="C51" s="31" t="n">
@@ -1702,10 +1698,10 @@
       <c r="B53" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="C53" s="49" t="n">
+      <c r="C53" s="48" t="n">
         <v>1</v>
       </c>
-      <c r="D53" s="42" t="s">
+      <c r="D53" s="49" t="s">
         <v>39</v>
       </c>
       <c r="E53" s="33"/>
@@ -1715,7 +1711,7 @@
       <c r="A54" s="29" t="n">
         <v>52</v>
       </c>
-      <c r="B54" s="41" t="s">
+      <c r="B54" s="47" t="s">
         <v>38</v>
       </c>
       <c r="C54" s="31" t="n">
@@ -1763,7 +1759,7 @@
       <c r="A57" s="29" t="n">
         <v>55</v>
       </c>
-      <c r="B57" s="41" t="s">
+      <c r="B57" s="47" t="s">
         <v>38</v>
       </c>
       <c r="C57" s="31" t="n">
@@ -1779,7 +1775,7 @@
       <c r="A58" s="29" t="n">
         <v>56</v>
       </c>
-      <c r="B58" s="41" t="s">
+      <c r="B58" s="47" t="s">
         <v>38</v>
       </c>
       <c r="C58" s="31" t="n">
@@ -1827,23 +1823,23 @@
       <c r="A61" s="29" t="n">
         <v>59</v>
       </c>
-      <c r="B61" s="55" t="s">
+      <c r="B61" s="47" t="s">
         <v>38</v>
       </c>
       <c r="C61" s="31" t="n">
         <v>9</v>
       </c>
-      <c r="D61" s="55" t="s">
+      <c r="D61" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="E61" s="56"/>
+      <c r="E61" s="55"/>
       <c r="F61" s="34"/>
     </row>
     <row r="62" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="41" t="n">
+      <c r="A62" s="47" t="n">
         <v>60</v>
       </c>
-      <c r="B62" s="41" t="s">
+      <c r="B62" s="47" t="s">
         <v>38</v>
       </c>
       <c r="C62" s="31" t="n">
@@ -1859,13 +1855,13 @@
       <c r="A63" s="33" t="n">
         <v>61</v>
       </c>
-      <c r="B63" s="41" t="s">
+      <c r="B63" s="47" t="s">
         <v>38</v>
       </c>
       <c r="C63" s="31" t="n">
         <v>11</v>
       </c>
-      <c r="D63" s="42" t="s">
+      <c r="D63" s="49" t="s">
         <v>47</v>
       </c>
       <c r="E63" s="29"/>
@@ -1894,10 +1890,10 @@
       <c r="B65" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="C65" s="49" t="n">
+      <c r="C65" s="48" t="n">
         <v>1</v>
       </c>
-      <c r="D65" s="42" t="s">
+      <c r="D65" s="49" t="s">
         <v>49</v>
       </c>
       <c r="E65" s="33"/>
@@ -1907,7 +1903,7 @@
       <c r="A66" s="29" t="n">
         <v>64</v>
       </c>
-      <c r="B66" s="41" t="s">
+      <c r="B66" s="47" t="s">
         <v>38</v>
       </c>
       <c r="C66" s="31" t="n">
@@ -1923,7 +1919,7 @@
       <c r="A67" s="29" t="n">
         <v>65</v>
       </c>
-      <c r="B67" s="41" t="s">
+      <c r="B67" s="47" t="s">
         <v>38</v>
       </c>
       <c r="C67" s="31" t="n">
@@ -1939,7 +1935,7 @@
       <c r="A68" s="29" t="n">
         <v>66</v>
       </c>
-      <c r="B68" s="41" t="s">
+      <c r="B68" s="47" t="s">
         <v>38</v>
       </c>
       <c r="C68" s="31" t="n">
@@ -1987,7 +1983,7 @@
       <c r="A71" s="29" t="n">
         <v>69</v>
       </c>
-      <c r="B71" s="41" t="s">
+      <c r="B71" s="47" t="s">
         <v>38</v>
       </c>
       <c r="C71" s="31" t="n">
@@ -2022,23 +2018,23 @@
       <c r="B73" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="C73" s="49" t="n">
+      <c r="C73" s="48" t="n">
         <v>1</v>
       </c>
-      <c r="D73" s="42" t="s">
+      <c r="D73" s="49" t="s">
         <v>56</v>
       </c>
       <c r="E73" s="33"/>
       <c r="F73" s="34"/>
     </row>
     <row r="74" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="41" t="n">
+      <c r="A74" s="47" t="n">
         <v>72</v>
       </c>
-      <c r="B74" s="41" t="s">
+      <c r="B74" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="C74" s="41" t="n">
+      <c r="C74" s="47" t="n">
         <v>2</v>
       </c>
       <c r="D74" s="32" t="s">
@@ -2051,10 +2047,10 @@
       <c r="A75" s="33" t="n">
         <v>73</v>
       </c>
-      <c r="B75" s="41" t="s">
+      <c r="B75" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="C75" s="49" t="n">
+      <c r="C75" s="48" t="n">
         <v>3</v>
       </c>
       <c r="D75" s="32" t="s">
@@ -2067,7 +2063,7 @@
       <c r="A76" s="29" t="n">
         <v>74</v>
       </c>
-      <c r="B76" s="41" t="s">
+      <c r="B76" s="47" t="s">
         <v>55</v>
       </c>
       <c r="C76" s="31" t="n">
@@ -2083,7 +2079,7 @@
       <c r="A77" s="29" t="n">
         <v>75</v>
       </c>
-      <c r="B77" s="41" t="s">
+      <c r="B77" s="47" t="s">
         <v>55</v>
       </c>
       <c r="C77" s="31" t="n">
@@ -2204,24 +2200,24 @@
       <c r="D84" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="E84" s="57"/>
+      <c r="E84" s="56"/>
       <c r="F84" s="28"/>
     </row>
     <row r="85" s="25" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="58" t="n">
+      <c r="A85" s="57" t="n">
         <v>83</v>
       </c>
-      <c r="B85" s="58" t="s">
+      <c r="B85" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="C85" s="59" t="n">
+      <c r="C85" s="58" t="n">
         <v>6</v>
       </c>
-      <c r="D85" s="58" t="s">
+      <c r="D85" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="E85" s="60"/>
-      <c r="F85" s="61"/>
+      <c r="E85" s="59"/>
+      <c r="F85" s="60"/>
     </row>
     <row r="86" s="25" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="21" t="n">
@@ -2291,7 +2287,7 @@
       <c r="A90" s="29" t="n">
         <v>88</v>
       </c>
-      <c r="B90" s="41" t="s">
+      <c r="B90" s="47" t="s">
         <v>69</v>
       </c>
       <c r="C90" s="31" t="n">
@@ -2307,7 +2303,7 @@
       <c r="A91" s="29" t="n">
         <v>89</v>
       </c>
-      <c r="B91" s="41" t="s">
+      <c r="B91" s="47" t="s">
         <v>69</v>
       </c>
       <c r="C91" s="31" t="n">
@@ -2368,20 +2364,20 @@
       <c r="F94" s="28"/>
     </row>
     <row r="95" s="25" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="62" t="n">
+      <c r="A95" s="61" t="n">
         <v>93</v>
       </c>
-      <c r="B95" s="58" t="s">
+      <c r="B95" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="C95" s="63" t="n">
+      <c r="C95" s="62" t="n">
         <v>10</v>
       </c>
-      <c r="D95" s="58" t="s">
+      <c r="D95" s="57" t="s">
         <v>75</v>
       </c>
-      <c r="E95" s="62"/>
-      <c r="F95" s="61"/>
+      <c r="E95" s="61"/>
+      <c r="F95" s="60"/>
     </row>
     <row r="96" s="25" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="21" t="n">
@@ -2419,7 +2415,7 @@
       <c r="A98" s="29" t="n">
         <v>96</v>
       </c>
-      <c r="B98" s="41" t="s">
+      <c r="B98" s="47" t="s">
         <v>69</v>
       </c>
       <c r="C98" s="31" t="n">
@@ -2435,7 +2431,7 @@
       <c r="A99" s="29" t="n">
         <v>97</v>
       </c>
-      <c r="B99" s="41" t="s">
+      <c r="B99" s="47" t="s">
         <v>69</v>
       </c>
       <c r="C99" s="31" t="n">
@@ -2447,43 +2443,43 @@
       <c r="E99" s="29"/>
       <c r="F99" s="34"/>
     </row>
-    <row r="100" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="29" t="n">
+    <row r="100" s="25" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="26" t="n">
         <v>98</v>
       </c>
-      <c r="B100" s="41" t="s">
+      <c r="B100" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="C100" s="31" t="n">
+      <c r="C100" s="27" t="n">
         <v>5</v>
       </c>
-      <c r="D100" s="32" t="s">
+      <c r="D100" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="E100" s="29"/>
-      <c r="F100" s="34"/>
-    </row>
-    <row r="101" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="29" t="n">
+      <c r="E100" s="26"/>
+      <c r="F100" s="28"/>
+    </row>
+    <row r="101" s="25" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="26" t="n">
         <v>99</v>
       </c>
-      <c r="B101" s="41" t="s">
+      <c r="B101" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="C101" s="31" t="n">
+      <c r="C101" s="27" t="n">
         <v>6</v>
       </c>
-      <c r="D101" s="32" t="s">
+      <c r="D101" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="E101" s="29"/>
-      <c r="F101" s="34"/>
+      <c r="E101" s="26"/>
+      <c r="F101" s="28"/>
     </row>
     <row r="102" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="29" t="n">
         <v>100</v>
       </c>
-      <c r="B102" s="41" t="s">
+      <c r="B102" s="47" t="s">
         <v>69</v>
       </c>
       <c r="C102" s="31" t="n">
@@ -2499,7 +2495,7 @@
       <c r="A103" s="29" t="n">
         <v>101</v>
       </c>
-      <c r="B103" s="41" t="s">
+      <c r="B103" s="47" t="s">
         <v>69</v>
       </c>
       <c r="C103" s="31" t="n">
@@ -2511,37 +2507,37 @@
       <c r="E103" s="29"/>
       <c r="F103" s="34"/>
     </row>
-    <row r="104" s="68" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="64" t="n">
+    <row r="104" s="67" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="63" t="n">
         <v>102</v>
       </c>
-      <c r="B104" s="65" t="s">
+      <c r="B104" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="C104" s="66" t="n">
+      <c r="C104" s="65" t="n">
         <v>9</v>
       </c>
-      <c r="D104" s="65" t="s">
+      <c r="D104" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="E104" s="64"/>
-      <c r="F104" s="67"/>
-    </row>
-    <row r="105" s="68" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="64" t="n">
+      <c r="E104" s="63"/>
+      <c r="F104" s="66"/>
+    </row>
+    <row r="105" s="67" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="63" t="n">
         <v>103</v>
       </c>
-      <c r="B105" s="65" t="s">
+      <c r="B105" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="C105" s="66" t="n">
+      <c r="C105" s="65" t="n">
         <v>10</v>
       </c>
-      <c r="D105" s="65" t="s">
+      <c r="D105" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="E105" s="64"/>
-      <c r="F105" s="67"/>
+      <c r="E105" s="63"/>
+      <c r="F105" s="66"/>
     </row>
     <row r="106" s="25" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="26" t="n">
@@ -2560,20 +2556,20 @@
       <c r="F106" s="28"/>
     </row>
     <row r="107" s="25" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="62" t="n">
+      <c r="A107" s="61" t="n">
         <v>105</v>
       </c>
-      <c r="B107" s="58" t="s">
+      <c r="B107" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="C107" s="63" t="n">
+      <c r="C107" s="62" t="n">
         <v>12</v>
       </c>
-      <c r="D107" s="58" t="s">
+      <c r="D107" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="E107" s="63"/>
-      <c r="F107" s="61"/>
+      <c r="E107" s="62"/>
+      <c r="F107" s="60"/>
     </row>
     <row r="108" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1"/>
@@ -2592,15 +2588,15 @@
     </row>
     <row r="110" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B110" s="1"/>
-      <c r="C110" s="69"/>
-      <c r="D110" s="70" t="s">
+      <c r="C110" s="68"/>
+      <c r="D110" s="69" t="s">
         <v>83</v>
       </c>
       <c r="E110" s="1"/>
       <c r="G110" s="1"/>
     </row>
     <row r="111" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C111" s="71"/>
+      <c r="C111" s="70"/>
       <c r="D111" s="1" t="s">
         <v>84</v>
       </c>
@@ -2624,12 +2620,12 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="39:40 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="37:38 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="7.98"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/abitiSfilata2018.xlsx
+++ b/abitiSfilata2018.xlsx
@@ -625,8 +625,20 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -669,6 +681,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -705,27 +721,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -840,19 +840,19 @@
   </sheetPr>
   <dimension ref="A1:G111"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A38" activeCellId="0" sqref="37:38"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A68" activeCellId="0" sqref="67:68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="5.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="25.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="16.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="7.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="5.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="25.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="15.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="7.82"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1367,55 +1367,55 @@
       <c r="E32" s="21"/>
       <c r="F32" s="28"/>
     </row>
-    <row r="33" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="29" t="n">
+    <row r="33" s="25" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="26" t="n">
         <v>31</v>
       </c>
-      <c r="B33" s="30" t="s">
+      <c r="B33" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C33" s="31" t="n">
+      <c r="C33" s="27" t="n">
         <v>13</v>
       </c>
-      <c r="D33" s="32" t="s">
+      <c r="D33" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="E33" s="33"/>
-      <c r="F33" s="34"/>
-    </row>
-    <row r="34" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="5" t="n">
+      <c r="E33" s="21"/>
+      <c r="F33" s="28"/>
+    </row>
+    <row r="34" s="25" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="37" t="n">
         <v>32</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="4" t="n">
+      <c r="C34" s="39" t="n">
         <v>14</v>
       </c>
-      <c r="D34" s="37" t="s">
+      <c r="D34" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="E34" s="5"/>
-      <c r="F34" s="8"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="40"/>
     </row>
     <row r="35" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="38" t="n">
+      <c r="A35" s="41" t="n">
         <v>33</v>
       </c>
-      <c r="B35" s="38" t="s">
+      <c r="B35" s="41" t="s">
         <v>15</v>
       </c>
       <c r="C35" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="D35" s="38" t="s">
+      <c r="D35" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="E35" s="39" t="n">
+      <c r="E35" s="42" t="n">
         <v>43298</v>
       </c>
-      <c r="F35" s="40" t="s">
+      <c r="F35" s="43" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1563,75 +1563,75 @@
       <c r="E44" s="33"/>
       <c r="F44" s="34"/>
     </row>
-    <row r="45" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="29" t="n">
+    <row r="45" s="25" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="26" t="n">
         <v>43</v>
       </c>
-      <c r="B45" s="30" t="s">
+      <c r="B45" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C45" s="31" t="n">
+      <c r="C45" s="27" t="n">
         <v>11</v>
       </c>
-      <c r="D45" s="32" t="s">
+      <c r="D45" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="E45" s="29"/>
-      <c r="F45" s="34"/>
-    </row>
-    <row r="46" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="5" t="n">
+      <c r="E45" s="26"/>
+      <c r="F45" s="28"/>
+    </row>
+    <row r="46" s="25" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="37" t="n">
         <v>44</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="C46" s="4" t="n">
+      <c r="C46" s="39" t="n">
         <v>12</v>
       </c>
-      <c r="D46" s="37" t="s">
+      <c r="D46" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="E46" s="5"/>
-      <c r="F46" s="34"/>
-    </row>
-    <row r="47" s="44" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="41" t="n">
+      <c r="E46" s="37"/>
+      <c r="F46" s="28"/>
+    </row>
+    <row r="47" s="47" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="44" t="n">
         <v>45</v>
       </c>
       <c r="B47" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C47" s="42" t="n">
+      <c r="C47" s="45" t="n">
         <v>1</v>
       </c>
       <c r="D47" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="E47" s="41"/>
-      <c r="F47" s="43"/>
-    </row>
-    <row r="48" s="44" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="45" t="n">
+      <c r="E47" s="44"/>
+      <c r="F47" s="46"/>
+    </row>
+    <row r="48" s="47" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="48" t="n">
         <v>46</v>
       </c>
       <c r="B48" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="C48" s="46" t="n">
+      <c r="C48" s="49" t="n">
         <v>2</v>
       </c>
       <c r="D48" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="E48" s="45"/>
-      <c r="F48" s="43"/>
+      <c r="E48" s="48"/>
+      <c r="F48" s="46"/>
     </row>
     <row r="49" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="29" t="n">
         <v>47</v>
       </c>
-      <c r="B49" s="47" t="s">
+      <c r="B49" s="50" t="s">
         <v>34</v>
       </c>
       <c r="C49" s="31" t="n">
@@ -1647,7 +1647,7 @@
       <c r="A50" s="29" t="n">
         <v>48</v>
       </c>
-      <c r="B50" s="47" t="s">
+      <c r="B50" s="50" t="s">
         <v>34</v>
       </c>
       <c r="C50" s="31" t="n">
@@ -1663,7 +1663,7 @@
       <c r="A51" s="29" t="n">
         <v>49</v>
       </c>
-      <c r="B51" s="47" t="s">
+      <c r="B51" s="50" t="s">
         <v>34</v>
       </c>
       <c r="C51" s="31" t="n">
@@ -1685,7 +1685,7 @@
       <c r="C52" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="D52" s="37" t="s">
+      <c r="D52" s="51" t="s">
         <v>37</v>
       </c>
       <c r="E52" s="5"/>
@@ -1698,10 +1698,10 @@
       <c r="B53" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="C53" s="48" t="n">
+      <c r="C53" s="52" t="n">
         <v>1</v>
       </c>
-      <c r="D53" s="49" t="s">
+      <c r="D53" s="53" t="s">
         <v>39</v>
       </c>
       <c r="E53" s="33"/>
@@ -1711,7 +1711,7 @@
       <c r="A54" s="29" t="n">
         <v>52</v>
       </c>
-      <c r="B54" s="47" t="s">
+      <c r="B54" s="50" t="s">
         <v>38</v>
       </c>
       <c r="C54" s="31" t="n">
@@ -1755,91 +1755,91 @@
       <c r="E56" s="26"/>
       <c r="F56" s="28"/>
     </row>
-    <row r="57" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="29" t="n">
+    <row r="57" s="25" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="26" t="n">
         <v>55</v>
       </c>
-      <c r="B57" s="47" t="s">
+      <c r="B57" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="C57" s="31" t="n">
+      <c r="C57" s="27" t="n">
         <v>5</v>
       </c>
-      <c r="D57" s="32" t="s">
+      <c r="D57" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="E57" s="29"/>
-      <c r="F57" s="34"/>
-    </row>
-    <row r="58" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="29" t="n">
+      <c r="E57" s="26"/>
+      <c r="F57" s="28"/>
+    </row>
+    <row r="58" s="25" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="26" t="n">
         <v>56</v>
       </c>
-      <c r="B58" s="47" t="s">
+      <c r="B58" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="C58" s="31" t="n">
+      <c r="C58" s="27" t="n">
         <v>6</v>
       </c>
-      <c r="D58" s="32" t="s">
+      <c r="D58" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="E58" s="29"/>
-      <c r="F58" s="34"/>
-    </row>
-    <row r="59" s="54" customFormat="true" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="50" t="n">
+      <c r="E58" s="26"/>
+      <c r="F58" s="28"/>
+    </row>
+    <row r="59" s="58" customFormat="true" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="54" t="n">
         <v>57</v>
       </c>
-      <c r="B59" s="51" t="s">
+      <c r="B59" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="C59" s="52" t="n">
+      <c r="C59" s="56" t="n">
         <v>7</v>
       </c>
-      <c r="D59" s="51" t="s">
+      <c r="D59" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="E59" s="50"/>
-      <c r="F59" s="53"/>
-    </row>
-    <row r="60" s="54" customFormat="true" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="50" t="n">
+      <c r="E59" s="54"/>
+      <c r="F59" s="57"/>
+    </row>
+    <row r="60" s="58" customFormat="true" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="54" t="n">
         <v>58</v>
       </c>
-      <c r="B60" s="51" t="s">
+      <c r="B60" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="C60" s="52" t="n">
+      <c r="C60" s="56" t="n">
         <v>8</v>
       </c>
-      <c r="D60" s="51" t="s">
+      <c r="D60" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="E60" s="50"/>
-      <c r="F60" s="53"/>
+      <c r="E60" s="54"/>
+      <c r="F60" s="57"/>
     </row>
     <row r="61" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="29" t="n">
         <v>59</v>
       </c>
-      <c r="B61" s="47" t="s">
+      <c r="B61" s="50" t="s">
         <v>38</v>
       </c>
       <c r="C61" s="31" t="n">
         <v>9</v>
       </c>
-      <c r="D61" s="47" t="s">
+      <c r="D61" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="E61" s="55"/>
+      <c r="E61" s="59"/>
       <c r="F61" s="34"/>
     </row>
     <row r="62" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="47" t="n">
+      <c r="A62" s="50" t="n">
         <v>60</v>
       </c>
-      <c r="B62" s="47" t="s">
+      <c r="B62" s="50" t="s">
         <v>38</v>
       </c>
       <c r="C62" s="31" t="n">
@@ -1855,13 +1855,13 @@
       <c r="A63" s="33" t="n">
         <v>61</v>
       </c>
-      <c r="B63" s="47" t="s">
+      <c r="B63" s="50" t="s">
         <v>38</v>
       </c>
       <c r="C63" s="31" t="n">
         <v>11</v>
       </c>
-      <c r="D63" s="49" t="s">
+      <c r="D63" s="53" t="s">
         <v>47</v>
       </c>
       <c r="E63" s="29"/>
@@ -1877,7 +1877,7 @@
       <c r="C64" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="D64" s="37" t="s">
+      <c r="D64" s="51" t="s">
         <v>48</v>
       </c>
       <c r="E64" s="5"/>
@@ -1890,10 +1890,10 @@
       <c r="B65" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="C65" s="48" t="n">
+      <c r="C65" s="52" t="n">
         <v>1</v>
       </c>
-      <c r="D65" s="49" t="s">
+      <c r="D65" s="53" t="s">
         <v>49</v>
       </c>
       <c r="E65" s="33"/>
@@ -1903,7 +1903,7 @@
       <c r="A66" s="29" t="n">
         <v>64</v>
       </c>
-      <c r="B66" s="47" t="s">
+      <c r="B66" s="50" t="s">
         <v>38</v>
       </c>
       <c r="C66" s="31" t="n">
@@ -1915,37 +1915,37 @@
       <c r="E66" s="29"/>
       <c r="F66" s="34"/>
     </row>
-    <row r="67" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="29" t="n">
+    <row r="67" s="25" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="26" t="n">
         <v>65</v>
       </c>
-      <c r="B67" s="47" t="s">
+      <c r="B67" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="C67" s="31" t="n">
+      <c r="C67" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="D67" s="32" t="s">
+      <c r="D67" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="E67" s="29"/>
-      <c r="F67" s="34"/>
-    </row>
-    <row r="68" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="29" t="n">
+      <c r="E67" s="26"/>
+      <c r="F67" s="28"/>
+    </row>
+    <row r="68" s="25" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="26" t="n">
         <v>66</v>
       </c>
-      <c r="B68" s="47" t="s">
+      <c r="B68" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="C68" s="31" t="n">
+      <c r="C68" s="27" t="n">
         <v>4</v>
       </c>
-      <c r="D68" s="32" t="s">
+      <c r="D68" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="E68" s="29"/>
-      <c r="F68" s="34"/>
+      <c r="E68" s="26"/>
+      <c r="F68" s="28"/>
     </row>
     <row r="69" s="25" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="26" t="n">
@@ -1983,7 +1983,7 @@
       <c r="A71" s="29" t="n">
         <v>69</v>
       </c>
-      <c r="B71" s="47" t="s">
+      <c r="B71" s="50" t="s">
         <v>38</v>
       </c>
       <c r="C71" s="31" t="n">
@@ -2005,7 +2005,7 @@
       <c r="C72" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="D72" s="37" t="s">
+      <c r="D72" s="51" t="s">
         <v>54</v>
       </c>
       <c r="E72" s="5"/>
@@ -2018,23 +2018,23 @@
       <c r="B73" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="C73" s="48" t="n">
+      <c r="C73" s="52" t="n">
         <v>1</v>
       </c>
-      <c r="D73" s="49" t="s">
+      <c r="D73" s="53" t="s">
         <v>56</v>
       </c>
       <c r="E73" s="33"/>
       <c r="F73" s="34"/>
     </row>
     <row r="74" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="47" t="n">
+      <c r="A74" s="50" t="n">
         <v>72</v>
       </c>
-      <c r="B74" s="47" t="s">
+      <c r="B74" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="C74" s="47" t="n">
+      <c r="C74" s="50" t="n">
         <v>2</v>
       </c>
       <c r="D74" s="32" t="s">
@@ -2047,10 +2047,10 @@
       <c r="A75" s="33" t="n">
         <v>73</v>
       </c>
-      <c r="B75" s="47" t="s">
+      <c r="B75" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="C75" s="48" t="n">
+      <c r="C75" s="52" t="n">
         <v>3</v>
       </c>
       <c r="D75" s="32" t="s">
@@ -2063,7 +2063,7 @@
       <c r="A76" s="29" t="n">
         <v>74</v>
       </c>
-      <c r="B76" s="47" t="s">
+      <c r="B76" s="50" t="s">
         <v>55</v>
       </c>
       <c r="C76" s="31" t="n">
@@ -2079,7 +2079,7 @@
       <c r="A77" s="29" t="n">
         <v>75</v>
       </c>
-      <c r="B77" s="47" t="s">
+      <c r="B77" s="50" t="s">
         <v>55</v>
       </c>
       <c r="C77" s="31" t="n">
@@ -2117,7 +2117,7 @@
       <c r="C79" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="D79" s="37" t="s">
+      <c r="D79" s="51" t="s">
         <v>62</v>
       </c>
       <c r="E79" s="5"/>
@@ -2200,24 +2200,24 @@
       <c r="D84" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="E84" s="56"/>
+      <c r="E84" s="60"/>
       <c r="F84" s="28"/>
     </row>
     <row r="85" s="25" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="57" t="n">
+      <c r="A85" s="38" t="n">
         <v>83</v>
       </c>
-      <c r="B85" s="57" t="s">
+      <c r="B85" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="C85" s="58" t="n">
+      <c r="C85" s="61" t="n">
         <v>6</v>
       </c>
-      <c r="D85" s="57" t="s">
+      <c r="D85" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="E85" s="59"/>
-      <c r="F85" s="60"/>
+      <c r="E85" s="62"/>
+      <c r="F85" s="40"/>
     </row>
     <row r="86" s="25" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="21" t="n">
@@ -2283,37 +2283,37 @@
       <c r="E89" s="26"/>
       <c r="F89" s="28"/>
     </row>
-    <row r="90" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="29" t="n">
+    <row r="90" s="25" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="26" t="n">
         <v>88</v>
       </c>
-      <c r="B90" s="47" t="s">
+      <c r="B90" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="C90" s="31" t="n">
+      <c r="C90" s="27" t="n">
         <v>5</v>
       </c>
-      <c r="D90" s="32" t="s">
+      <c r="D90" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="E90" s="29"/>
-      <c r="F90" s="34"/>
-    </row>
-    <row r="91" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="29" t="n">
+      <c r="E90" s="26"/>
+      <c r="F90" s="28"/>
+    </row>
+    <row r="91" s="25" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="26" t="n">
         <v>89</v>
       </c>
-      <c r="B91" s="47" t="s">
+      <c r="B91" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="C91" s="31" t="n">
+      <c r="C91" s="27" t="n">
         <v>6</v>
       </c>
-      <c r="D91" s="32" t="s">
+      <c r="D91" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="E91" s="29"/>
-      <c r="F91" s="34"/>
+      <c r="E91" s="26"/>
+      <c r="F91" s="28"/>
     </row>
     <row r="92" s="25" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="26" t="n">
@@ -2364,20 +2364,20 @@
       <c r="F94" s="28"/>
     </row>
     <row r="95" s="25" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="61" t="n">
+      <c r="A95" s="37" t="n">
         <v>93</v>
       </c>
-      <c r="B95" s="57" t="s">
+      <c r="B95" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="C95" s="62" t="n">
+      <c r="C95" s="39" t="n">
         <v>10</v>
       </c>
-      <c r="D95" s="57" t="s">
+      <c r="D95" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="E95" s="61"/>
-      <c r="F95" s="60"/>
+      <c r="E95" s="37"/>
+      <c r="F95" s="40"/>
     </row>
     <row r="96" s="25" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="21" t="n">
@@ -2415,7 +2415,7 @@
       <c r="A98" s="29" t="n">
         <v>96</v>
       </c>
-      <c r="B98" s="47" t="s">
+      <c r="B98" s="50" t="s">
         <v>69</v>
       </c>
       <c r="C98" s="31" t="n">
@@ -2431,7 +2431,7 @@
       <c r="A99" s="29" t="n">
         <v>97</v>
       </c>
-      <c r="B99" s="47" t="s">
+      <c r="B99" s="50" t="s">
         <v>69</v>
       </c>
       <c r="C99" s="31" t="n">
@@ -2479,7 +2479,7 @@
       <c r="A102" s="29" t="n">
         <v>100</v>
       </c>
-      <c r="B102" s="47" t="s">
+      <c r="B102" s="50" t="s">
         <v>69</v>
       </c>
       <c r="C102" s="31" t="n">
@@ -2495,7 +2495,7 @@
       <c r="A103" s="29" t="n">
         <v>101</v>
       </c>
-      <c r="B103" s="47" t="s">
+      <c r="B103" s="50" t="s">
         <v>69</v>
       </c>
       <c r="C103" s="31" t="n">
@@ -2556,20 +2556,20 @@
       <c r="F106" s="28"/>
     </row>
     <row r="107" s="25" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="61" t="n">
+      <c r="A107" s="37" t="n">
         <v>105</v>
       </c>
-      <c r="B107" s="57" t="s">
+      <c r="B107" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="C107" s="62" t="n">
+      <c r="C107" s="39" t="n">
         <v>12</v>
       </c>
-      <c r="D107" s="57" t="s">
+      <c r="D107" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="E107" s="62"/>
-      <c r="F107" s="60"/>
+      <c r="E107" s="39"/>
+      <c r="F107" s="40"/>
     </row>
     <row r="108" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1"/>
@@ -2620,12 +2620,12 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="37:38 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="67:68 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="7.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="7.82"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/abitiSfilata2018.xlsx
+++ b/abitiSfilata2018.xlsx
@@ -840,19 +840,19 @@
   </sheetPr>
   <dimension ref="A1:G111"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A68" activeCellId="0" sqref="67:68"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A94" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A103" activeCellId="0" sqref="102:103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="5.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="25.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="15.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="7.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="5.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="24.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="15.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="7.66"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1531,37 +1531,37 @@
       <c r="E42" s="21"/>
       <c r="F42" s="28"/>
     </row>
-    <row r="43" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="29" t="n">
+    <row r="43" s="25" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="26" t="n">
         <v>41</v>
       </c>
-      <c r="B43" s="30" t="s">
+      <c r="B43" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C43" s="31" t="n">
+      <c r="C43" s="27" t="n">
         <v>9</v>
       </c>
-      <c r="D43" s="32" t="s">
+      <c r="D43" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="E43" s="33"/>
-      <c r="F43" s="34"/>
-    </row>
-    <row r="44" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="29" t="n">
+      <c r="E43" s="21"/>
+      <c r="F43" s="28"/>
+    </row>
+    <row r="44" s="25" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="26" t="n">
         <v>42</v>
       </c>
-      <c r="B44" s="30" t="s">
+      <c r="B44" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C44" s="31" t="n">
+      <c r="C44" s="27" t="n">
         <v>10</v>
       </c>
-      <c r="D44" s="32" t="s">
+      <c r="D44" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="33"/>
-      <c r="F44" s="34"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="28"/>
     </row>
     <row r="45" s="25" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="26" t="n">
@@ -2059,21 +2059,21 @@
       <c r="E75" s="29"/>
       <c r="F75" s="34"/>
     </row>
-    <row r="76" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="29" t="n">
+    <row r="76" s="25" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="26" t="n">
         <v>74</v>
       </c>
-      <c r="B76" s="50" t="s">
+      <c r="B76" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="C76" s="31" t="n">
+      <c r="C76" s="27" t="n">
         <v>4</v>
       </c>
-      <c r="D76" s="32" t="s">
+      <c r="D76" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="E76" s="29"/>
-      <c r="F76" s="34"/>
+      <c r="E76" s="26"/>
+      <c r="F76" s="28"/>
     </row>
     <row r="77" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="29" t="n">
@@ -2475,37 +2475,37 @@
       <c r="E101" s="26"/>
       <c r="F101" s="28"/>
     </row>
-    <row r="102" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="29" t="n">
+    <row r="102" s="25" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="26" t="n">
         <v>100</v>
       </c>
-      <c r="B102" s="50" t="s">
+      <c r="B102" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="C102" s="31" t="n">
+      <c r="C102" s="27" t="n">
         <v>7</v>
       </c>
-      <c r="D102" s="32" t="s">
+      <c r="D102" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="E102" s="29"/>
-      <c r="F102" s="34"/>
-    </row>
-    <row r="103" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="29" t="n">
+      <c r="E102" s="26"/>
+      <c r="F102" s="28"/>
+    </row>
+    <row r="103" s="25" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="26" t="n">
         <v>101</v>
       </c>
-      <c r="B103" s="50" t="s">
+      <c r="B103" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="C103" s="31" t="n">
+      <c r="C103" s="27" t="n">
         <v>8</v>
       </c>
-      <c r="D103" s="32" t="s">
+      <c r="D103" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="E103" s="29"/>
-      <c r="F103" s="34"/>
+      <c r="E103" s="26"/>
+      <c r="F103" s="28"/>
     </row>
     <row r="104" s="67" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="63" t="n">
@@ -2620,12 +2620,12 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="67:68 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="102:103 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="7.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="7.66"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/abitiSfilata2018.xlsx
+++ b/abitiSfilata2018.xlsx
@@ -840,15 +840,15 @@
   </sheetPr>
   <dimension ref="A1:G111"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A94" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A103" activeCellId="0" sqref="102:103"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A61" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D73" activeCellId="0" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="5.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="5.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="24.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="15.51"/>
@@ -1883,37 +1883,37 @@
       <c r="E64" s="5"/>
       <c r="F64" s="34"/>
     </row>
-    <row r="65" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="33" t="n">
+    <row r="65" s="25" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="21" t="n">
         <v>63</v>
       </c>
-      <c r="B65" s="30" t="s">
+      <c r="B65" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="C65" s="52" t="n">
+      <c r="C65" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="D65" s="53" t="s">
+      <c r="D65" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="E65" s="33"/>
-      <c r="F65" s="34"/>
-    </row>
-    <row r="66" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="29" t="n">
+      <c r="E65" s="21"/>
+      <c r="F65" s="28"/>
+    </row>
+    <row r="66" s="25" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="26" t="n">
         <v>64</v>
       </c>
-      <c r="B66" s="50" t="s">
+      <c r="B66" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="C66" s="31" t="n">
+      <c r="C66" s="27" t="n">
         <v>2</v>
       </c>
-      <c r="D66" s="32" t="s">
+      <c r="D66" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="E66" s="29"/>
-      <c r="F66" s="34"/>
+      <c r="E66" s="26"/>
+      <c r="F66" s="28"/>
     </row>
     <row r="67" s="25" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="26" t="n">
@@ -2620,7 +2620,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="102:103 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/abitiSfilata2018.xlsx
+++ b/abitiSfilata2018.xlsx
@@ -840,15 +840,15 @@
   </sheetPr>
   <dimension ref="A1:G111"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A61" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D73" activeCellId="0" sqref="D73"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A85" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D74" activeCellId="0" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="5.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="5.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="24.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="15.51"/>
@@ -1979,37 +1979,37 @@
       <c r="E70" s="26"/>
       <c r="F70" s="28"/>
     </row>
-    <row r="71" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="29" t="n">
+    <row r="71" s="25" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="26" t="n">
         <v>69</v>
       </c>
-      <c r="B71" s="50" t="s">
+      <c r="B71" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="C71" s="31" t="n">
+      <c r="C71" s="27" t="n">
         <v>7</v>
       </c>
-      <c r="D71" s="32" t="s">
+      <c r="D71" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="E71" s="29"/>
-      <c r="F71" s="34"/>
-    </row>
-    <row r="72" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="5" t="n">
+      <c r="E71" s="26"/>
+      <c r="F71" s="28"/>
+    </row>
+    <row r="72" s="25" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="37" t="n">
         <v>70</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B72" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="C72" s="4" t="n">
+      <c r="C72" s="39" t="n">
         <v>8</v>
       </c>
-      <c r="D72" s="51" t="s">
+      <c r="D72" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="E72" s="5"/>
-      <c r="F72" s="34"/>
+      <c r="E72" s="37"/>
+      <c r="F72" s="28"/>
     </row>
     <row r="73" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="33" t="n">

--- a/abitiSfilata2018.xlsx
+++ b/abitiSfilata2018.xlsx
@@ -681,10 +681,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -714,6 +710,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -840,8 +840,8 @@
   </sheetPr>
   <dimension ref="A1:G111"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A85" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D74" activeCellId="0" sqref="D74"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A64" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A74" activeCellId="0" sqref="73:74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1659,37 +1659,37 @@
       <c r="E50" s="29"/>
       <c r="F50" s="34"/>
     </row>
-    <row r="51" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="29" t="n">
+    <row r="51" s="25" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="26" t="n">
         <v>49</v>
       </c>
-      <c r="B51" s="50" t="s">
+      <c r="B51" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="C51" s="31" t="n">
+      <c r="C51" s="27" t="n">
         <v>5</v>
       </c>
-      <c r="D51" s="32" t="s">
+      <c r="D51" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="E51" s="29"/>
-      <c r="F51" s="34"/>
-    </row>
-    <row r="52" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="5" t="n">
+      <c r="E51" s="26"/>
+      <c r="F51" s="28"/>
+    </row>
+    <row r="52" s="25" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="37" t="n">
         <v>50</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="C52" s="4" t="n">
+      <c r="C52" s="39" t="n">
         <v>6</v>
       </c>
-      <c r="D52" s="51" t="s">
+      <c r="D52" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="E52" s="5"/>
-      <c r="F52" s="34"/>
+      <c r="E52" s="37"/>
+      <c r="F52" s="28"/>
     </row>
     <row r="53" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="33" t="n">
@@ -1698,10 +1698,10 @@
       <c r="B53" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="C53" s="52" t="n">
+      <c r="C53" s="51" t="n">
         <v>1</v>
       </c>
-      <c r="D53" s="53" t="s">
+      <c r="D53" s="52" t="s">
         <v>39</v>
       </c>
       <c r="E53" s="33"/>
@@ -1787,37 +1787,37 @@
       <c r="E58" s="26"/>
       <c r="F58" s="28"/>
     </row>
-    <row r="59" s="58" customFormat="true" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="54" t="n">
+    <row r="59" s="57" customFormat="true" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="53" t="n">
         <v>57</v>
       </c>
-      <c r="B59" s="55" t="s">
+      <c r="B59" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="C59" s="56" t="n">
+      <c r="C59" s="55" t="n">
         <v>7</v>
       </c>
-      <c r="D59" s="55" t="s">
+      <c r="D59" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="E59" s="54"/>
-      <c r="F59" s="57"/>
-    </row>
-    <row r="60" s="58" customFormat="true" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="54" t="n">
+      <c r="E59" s="53"/>
+      <c r="F59" s="56"/>
+    </row>
+    <row r="60" s="57" customFormat="true" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="53" t="n">
         <v>58</v>
       </c>
-      <c r="B60" s="55" t="s">
+      <c r="B60" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="C60" s="56" t="n">
+      <c r="C60" s="55" t="n">
         <v>8</v>
       </c>
-      <c r="D60" s="55" t="s">
+      <c r="D60" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="E60" s="54"/>
-      <c r="F60" s="57"/>
+      <c r="E60" s="53"/>
+      <c r="F60" s="56"/>
     </row>
     <row r="61" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="29" t="n">
@@ -1832,7 +1832,7 @@
       <c r="D61" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="E61" s="59"/>
+      <c r="E61" s="58"/>
       <c r="F61" s="34"/>
     </row>
     <row r="62" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1861,7 +1861,7 @@
       <c r="C63" s="31" t="n">
         <v>11</v>
       </c>
-      <c r="D63" s="53" t="s">
+      <c r="D63" s="52" t="s">
         <v>47</v>
       </c>
       <c r="E63" s="29"/>
@@ -1877,7 +1877,7 @@
       <c r="C64" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="D64" s="51" t="s">
+      <c r="D64" s="59" t="s">
         <v>48</v>
       </c>
       <c r="E64" s="5"/>
@@ -2011,37 +2011,37 @@
       <c r="E72" s="37"/>
       <c r="F72" s="28"/>
     </row>
-    <row r="73" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="33" t="n">
+    <row r="73" s="25" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="21" t="n">
         <v>71</v>
       </c>
-      <c r="B73" s="30" t="s">
+      <c r="B73" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="C73" s="52" t="n">
+      <c r="C73" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="D73" s="53" t="s">
+      <c r="D73" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="E73" s="33"/>
-      <c r="F73" s="34"/>
-    </row>
-    <row r="74" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="50" t="n">
+      <c r="E73" s="21"/>
+      <c r="F73" s="28"/>
+    </row>
+    <row r="74" s="25" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="35" t="n">
         <v>72</v>
       </c>
-      <c r="B74" s="50" t="s">
+      <c r="B74" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="C74" s="50" t="n">
+      <c r="C74" s="35" t="n">
         <v>2</v>
       </c>
-      <c r="D74" s="32" t="s">
+      <c r="D74" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="E74" s="29"/>
-      <c r="F74" s="34"/>
+      <c r="E74" s="26"/>
+      <c r="F74" s="28"/>
     </row>
     <row r="75" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="33" t="n">
@@ -2050,7 +2050,7 @@
       <c r="B75" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="C75" s="52" t="n">
+      <c r="C75" s="51" t="n">
         <v>3</v>
       </c>
       <c r="D75" s="32" t="s">
@@ -2117,7 +2117,7 @@
       <c r="C79" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="D79" s="51" t="s">
+      <c r="D79" s="59" t="s">
         <v>62</v>
       </c>
       <c r="E79" s="5"/>
@@ -2620,7 +2620,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="73:74 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/abitiSfilata2018.xlsx
+++ b/abitiSfilata2018.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="85">
   <si>
     <t xml:space="preserve">Ordine </t>
   </si>
@@ -56,6 +56,9 @@
     <t xml:space="preserve">FEDERICA ZALETTI</t>
   </si>
   <si>
+    <t xml:space="preserve">R</t>
+  </si>
+  <si>
     <t xml:space="preserve">LIBERTA' DI CAMMINARE…</t>
   </si>
   <si>
@@ -105,9 +108,6 @@
   </si>
   <si>
     <t xml:space="preserve">ENRICA DE SANTIS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">chiara</t>
   </si>
   <si>
     <t xml:space="preserve">CATALINA CIOCAN </t>
@@ -285,11 +285,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="DD/MM/YYYY"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -312,8 +311,16 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="15"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -334,20 +341,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor rgb="FFF10D0C"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFED1C24"/>
-        <bgColor rgb="FFF10D0C"/>
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -411,7 +412,7 @@
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
-      <top/>
+      <top style="thin"/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
@@ -432,7 +433,7 @@
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
-      <top style="thin"/>
+      <top/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
@@ -476,13 +477,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="66">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -497,8 +502,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -507,6 +512,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -521,8 +530,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -537,14 +546,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -561,7 +570,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -581,7 +594,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -593,167 +606,135 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -780,7 +761,7 @@
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FFF10D0C"/>
+      <rgbColor rgb="FF800000"/>
       <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
@@ -824,7 +805,7 @@
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FFED1C24"/>
+      <rgbColor rgb="FFF10D0C"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
@@ -840,1763 +821,1959 @@
   </sheetPr>
   <dimension ref="A1:G111"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A64" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A74" activeCellId="0" sqref="73:74"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="18.55" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="5.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="24.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="15.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="13.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="15.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="7.66"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="7" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="8"/>
-    </row>
-    <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="n">
+      <c r="D2" s="7"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="10"/>
+    </row>
+    <row r="3" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="10" t="n">
+      <c r="C3" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="12"/>
-    </row>
-    <row r="4" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13" t="n">
+      <c r="E3" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="14"/>
+    </row>
+    <row r="4" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="14" t="n">
+      <c r="C4" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="16"/>
-    </row>
-    <row r="5" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13" t="n">
+      <c r="E4" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="17"/>
+    </row>
+    <row r="5" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="14" t="n">
+      <c r="C5" s="16" t="n">
         <v>3</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="16"/>
-    </row>
-    <row r="6" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="15" t="n">
+      <c r="E5" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="17"/>
+    </row>
+    <row r="6" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="18" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="14" t="n">
+      <c r="C6" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="16"/>
-    </row>
-    <row r="7" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="15" t="n">
+      <c r="E6" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="17"/>
+    </row>
+    <row r="7" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="18" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="14" t="n">
+      <c r="C7" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="16"/>
-    </row>
-    <row r="8" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="17" t="n">
+      <c r="E7" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="17"/>
+    </row>
+    <row r="8" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="19" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="19" t="n">
+      <c r="C8" s="21" t="n">
         <v>6</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="20"/>
-    </row>
-    <row r="9" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11" t="n">
+      <c r="E8" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="22"/>
+    </row>
+    <row r="9" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="23" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="10" t="n">
+      <c r="B9" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="14"/>
+    </row>
+    <row r="10" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="18" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="12"/>
-    </row>
-    <row r="10" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="15" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="14" t="n">
+      <c r="C10" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="17"/>
+    </row>
+    <row r="11" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="18" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="16"/>
-    </row>
-    <row r="11" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="15" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="14" t="n">
+      <c r="C11" s="16" t="n">
         <v>3</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="17"/>
+    </row>
+    <row r="12" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="16"/>
-    </row>
-    <row r="12" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="15" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="14" t="n">
+      <c r="C12" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="17"/>
+    </row>
+    <row r="13" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="18" t="n">
         <v>11</v>
       </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="16"/>
-    </row>
-    <row r="13" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="15" t="n">
+      <c r="B13" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="14" t="n">
+      <c r="C13" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="17"/>
+    </row>
+    <row r="14" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="19" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="15"/>
-      <c r="F13" s="16"/>
-    </row>
-    <row r="14" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="17" t="n">
+      <c r="C14" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="D14" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="18" t="n">
+      <c r="E14" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="22"/>
+    </row>
+    <row r="15" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="23" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="14"/>
+    </row>
+    <row r="16" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="18" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="17"/>
+    </row>
+    <row r="17" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="18" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="17"/>
+    </row>
+    <row r="18" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="18" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="16" t="n">
+        <v>4</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="17"/>
+    </row>
+    <row r="19" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="17"/>
+    </row>
+    <row r="20" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="20" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="20" t="n">
         <v>6</v>
       </c>
-      <c r="D14" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="17"/>
-      <c r="F14" s="20"/>
-    </row>
-    <row r="15" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="11" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="10" t="n">
+      <c r="D20" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="22"/>
+    </row>
+    <row r="21" s="28" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="24" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="D15" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="12"/>
-    </row>
-    <row r="16" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="15" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="15"/>
-      <c r="F16" s="16"/>
-    </row>
-    <row r="17" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="15" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="14" t="n">
-        <v>3</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="15"/>
-      <c r="F17" s="16"/>
-    </row>
-    <row r="18" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="15" t="n">
+      <c r="D21" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="27"/>
+    </row>
+    <row r="22" s="28" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="29" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="14" t="n">
-        <v>4</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="15"/>
-      <c r="F18" s="16"/>
-    </row>
-    <row r="19" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="15" t="n">
+      <c r="C22" s="30" t="n">
+        <v>2</v>
+      </c>
+      <c r="D22" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="14" t="n">
-        <v>5</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="15"/>
-      <c r="F19" s="16"/>
-    </row>
-    <row r="20" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="18" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="18" t="n">
-        <v>6</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="19"/>
-      <c r="F20" s="20"/>
-    </row>
-    <row r="21" s="25" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="21" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" s="21"/>
-      <c r="F21" s="24"/>
-    </row>
-    <row r="22" s="25" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="26" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="27" t="n">
-        <v>2</v>
-      </c>
-      <c r="D22" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" s="21"/>
-      <c r="F22" s="28"/>
-    </row>
-    <row r="23" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E22" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="31"/>
+    </row>
+    <row r="23" s="28" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="29" t="n">
         <v>21</v>
       </c>
-      <c r="B23" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="31" t="n">
+      <c r="B23" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="30" t="n">
         <v>3</v>
       </c>
       <c r="D23" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="33"/>
-      <c r="F23" s="34"/>
-    </row>
-    <row r="24" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>18</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="31"/>
+    </row>
+    <row r="24" s="28" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="29" t="n">
         <v>22</v>
       </c>
-      <c r="B24" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="31" t="n">
+      <c r="B24" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="30" t="n">
         <v>4</v>
       </c>
       <c r="D24" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="33"/>
-      <c r="F24" s="34"/>
-    </row>
-    <row r="25" s="25" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="26" t="n">
+        <v>18</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="31"/>
+    </row>
+    <row r="25" s="28" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="29" t="n">
         <v>23</v>
       </c>
-      <c r="B25" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="27" t="n">
+      <c r="B25" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="30" t="n">
         <v>5</v>
       </c>
-      <c r="D25" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="E25" s="21"/>
-      <c r="F25" s="28"/>
-    </row>
-    <row r="26" s="25" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="26" t="n">
+      <c r="D25" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="31"/>
+    </row>
+    <row r="26" s="28" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="29" t="n">
         <v>24</v>
       </c>
-      <c r="B26" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="27" t="n">
+      <c r="B26" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="30" t="n">
         <v>6</v>
       </c>
-      <c r="D26" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="E26" s="21"/>
-      <c r="F26" s="28"/>
-    </row>
-    <row r="27" s="25" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="26" t="n">
+      <c r="D26" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="31"/>
+    </row>
+    <row r="27" s="28" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="29" t="n">
         <v>25</v>
       </c>
-      <c r="B27" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" s="27" t="n">
+      <c r="B27" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="30" t="n">
         <v>7</v>
       </c>
-      <c r="D27" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="E27" s="21"/>
-      <c r="F27" s="28"/>
-    </row>
-    <row r="28" s="25" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="26" t="n">
+      <c r="D27" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="31"/>
+    </row>
+    <row r="28" s="28" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="29" t="n">
         <v>26</v>
       </c>
-      <c r="B28" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28" s="27" t="n">
+      <c r="B28" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="30" t="n">
         <v>8</v>
       </c>
-      <c r="D28" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="E28" s="21"/>
-      <c r="F28" s="28"/>
-    </row>
-    <row r="29" s="25" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="26" t="n">
+      <c r="D28" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="31"/>
+    </row>
+    <row r="29" s="28" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="29" t="n">
         <v>27</v>
       </c>
-      <c r="B29" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" s="27" t="n">
+      <c r="B29" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="30" t="n">
         <v>9</v>
       </c>
-      <c r="D29" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="E29" s="21"/>
-      <c r="F29" s="28"/>
-    </row>
-    <row r="30" s="25" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="36" t="n">
+      <c r="D29" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="31"/>
+    </row>
+    <row r="30" s="28" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="33" t="n">
         <v>28</v>
       </c>
-      <c r="B30" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" s="36" t="n">
-        <v>10</v>
-      </c>
-      <c r="D30" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="E30" s="21"/>
-      <c r="F30" s="28"/>
-    </row>
-    <row r="31" s="25" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="21" t="n">
+      <c r="B30" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="33" t="n">
+        <v>10</v>
+      </c>
+      <c r="D30" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="31"/>
+    </row>
+    <row r="31" s="28" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="24" t="n">
         <v>29</v>
       </c>
-      <c r="B31" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="C31" s="23" t="n">
+      <c r="B31" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="26" t="n">
         <v>11</v>
       </c>
-      <c r="D31" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="E31" s="21"/>
-      <c r="F31" s="28"/>
-    </row>
-    <row r="32" s="25" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="26" t="n">
+      <c r="D31" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="31"/>
+    </row>
+    <row r="32" s="28" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="29" t="n">
         <v>30</v>
       </c>
-      <c r="B32" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="C32" s="27" t="n">
+      <c r="B32" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="30" t="n">
         <v>12</v>
       </c>
-      <c r="D32" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="E32" s="21"/>
-      <c r="F32" s="28"/>
-    </row>
-    <row r="33" s="25" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="26" t="n">
+      <c r="D32" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="31"/>
+    </row>
+    <row r="33" s="28" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="29" t="n">
         <v>31</v>
       </c>
-      <c r="B33" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="C33" s="27" t="n">
+      <c r="B33" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="30" t="n">
         <v>13</v>
       </c>
-      <c r="D33" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="E33" s="21"/>
-      <c r="F33" s="28"/>
-    </row>
-    <row r="34" s="25" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="37" t="n">
+      <c r="D33" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="31"/>
+    </row>
+    <row r="34" s="28" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="34" t="n">
         <v>32</v>
       </c>
-      <c r="B34" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="C34" s="39" t="n">
+      <c r="B34" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="36" t="n">
         <v>14</v>
       </c>
-      <c r="D34" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="E34" s="37"/>
-      <c r="F34" s="40"/>
-    </row>
-    <row r="35" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="41" t="n">
+      <c r="D34" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="37"/>
+    </row>
+    <row r="35" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="38" t="n">
         <v>33</v>
       </c>
-      <c r="B35" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="C35" s="23" t="n">
+      <c r="B35" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="D35" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="E35" s="42" t="n">
-        <v>43298</v>
-      </c>
-      <c r="F35" s="43" t="s">
+      <c r="D35" s="38" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="36" t="n">
+      <c r="E35" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="39"/>
+    </row>
+    <row r="36" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="33" t="n">
         <v>34</v>
       </c>
-      <c r="B36" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="C36" s="27" t="n">
+      <c r="B36" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" s="30" t="n">
         <v>2</v>
       </c>
-      <c r="D36" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="E36" s="21"/>
-      <c r="F36" s="28"/>
-    </row>
-    <row r="37" s="25" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="36" t="n">
+      <c r="D36" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="31"/>
+    </row>
+    <row r="37" s="28" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="33" t="n">
         <v>35</v>
       </c>
-      <c r="B37" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" s="27" t="n">
+      <c r="B37" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="30" t="n">
         <v>3</v>
       </c>
-      <c r="D37" s="22" t="s">
+      <c r="D37" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="E37" s="21"/>
-      <c r="F37" s="28"/>
-    </row>
-    <row r="38" s="25" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="36" t="n">
+      <c r="E37" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" s="31"/>
+    </row>
+    <row r="38" s="28" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="33" t="n">
         <v>36</v>
       </c>
-      <c r="B38" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="C38" s="27" t="n">
+      <c r="B38" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="30" t="n">
         <v>4</v>
       </c>
-      <c r="D38" s="22" t="s">
+      <c r="D38" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="E38" s="21"/>
-      <c r="F38" s="28"/>
-    </row>
-    <row r="39" s="25" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="36" t="n">
+      <c r="E38" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="31"/>
+    </row>
+    <row r="39" s="28" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="33" t="n">
         <v>37</v>
       </c>
-      <c r="B39" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="C39" s="27" t="n">
+      <c r="B39" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" s="30" t="n">
         <v>5</v>
       </c>
-      <c r="D39" s="35" t="s">
+      <c r="D39" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="E39" s="21"/>
-      <c r="F39" s="28"/>
-    </row>
-    <row r="40" s="25" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="36" t="n">
+      <c r="E39" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" s="31"/>
+    </row>
+    <row r="40" s="28" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="33" t="n">
         <v>38</v>
       </c>
-      <c r="B40" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="C40" s="27" t="n">
+      <c r="B40" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="30" t="n">
         <v>6</v>
       </c>
-      <c r="D40" s="35" t="s">
+      <c r="D40" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="E40" s="21"/>
-      <c r="F40" s="28"/>
-    </row>
-    <row r="41" s="25" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="21" t="n">
+      <c r="E40" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" s="31"/>
+    </row>
+    <row r="41" s="28" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="24" t="n">
         <v>39</v>
       </c>
-      <c r="B41" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="C41" s="27" t="n">
+      <c r="B41" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" s="30" t="n">
         <v>7</v>
       </c>
-      <c r="D41" s="35" t="s">
+      <c r="D41" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="E41" s="21"/>
-      <c r="F41" s="28"/>
-    </row>
-    <row r="42" s="25" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="26" t="n">
+      <c r="E41" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" s="31"/>
+    </row>
+    <row r="42" s="28" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="29" t="n">
         <v>40</v>
       </c>
-      <c r="B42" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="C42" s="27" t="n">
+      <c r="B42" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" s="30" t="n">
         <v>8</v>
       </c>
-      <c r="D42" s="35" t="s">
+      <c r="D42" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="E42" s="21"/>
-      <c r="F42" s="28"/>
-    </row>
-    <row r="43" s="25" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="26" t="n">
+      <c r="E42" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" s="31"/>
+    </row>
+    <row r="43" s="28" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="29" t="n">
         <v>41</v>
       </c>
-      <c r="B43" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="C43" s="27" t="n">
+      <c r="B43" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" s="30" t="n">
         <v>9</v>
       </c>
-      <c r="D43" s="35" t="s">
+      <c r="D43" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="E43" s="21"/>
-      <c r="F43" s="28"/>
-    </row>
-    <row r="44" s="25" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="26" t="n">
+      <c r="E43" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" s="31"/>
+    </row>
+    <row r="44" s="28" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="29" t="n">
         <v>42</v>
       </c>
-      <c r="B44" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="C44" s="27" t="n">
-        <v>10</v>
-      </c>
-      <c r="D44" s="35" t="s">
+      <c r="B44" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" s="30" t="n">
+        <v>10</v>
+      </c>
+      <c r="D44" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="21"/>
-      <c r="F44" s="28"/>
-    </row>
-    <row r="45" s="25" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="26" t="n">
+      <c r="E44" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" s="31"/>
+    </row>
+    <row r="45" s="28" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="29" t="n">
         <v>43</v>
       </c>
-      <c r="B45" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="C45" s="27" t="n">
+      <c r="B45" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" s="30" t="n">
         <v>11</v>
       </c>
-      <c r="D45" s="35" t="s">
+      <c r="D45" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="E45" s="26"/>
-      <c r="F45" s="28"/>
-    </row>
-    <row r="46" s="25" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="37" t="n">
+      <c r="E45" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45" s="31"/>
+    </row>
+    <row r="46" s="28" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="34" t="n">
         <v>44</v>
       </c>
-      <c r="B46" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="C46" s="39" t="n">
+      <c r="B46" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" s="36" t="n">
         <v>12</v>
       </c>
-      <c r="D46" s="38" t="s">
+      <c r="D46" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="E46" s="37"/>
-      <c r="F46" s="28"/>
-    </row>
-    <row r="47" s="47" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="44" t="n">
+      <c r="E46" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46" s="31"/>
+    </row>
+    <row r="47" s="43" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="40" t="n">
         <v>45</v>
       </c>
-      <c r="B47" s="22" t="s">
+      <c r="B47" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="C47" s="45" t="n">
+      <c r="C47" s="41" t="n">
         <v>1</v>
       </c>
-      <c r="D47" s="22" t="s">
+      <c r="D47" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="E47" s="44"/>
-      <c r="F47" s="46"/>
-    </row>
-    <row r="48" s="47" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="48" t="n">
+      <c r="E47" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47" s="42"/>
+    </row>
+    <row r="48" s="43" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="44" t="n">
         <v>46</v>
       </c>
-      <c r="B48" s="35" t="s">
+      <c r="B48" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="C48" s="49" t="n">
+      <c r="C48" s="45" t="n">
         <v>2</v>
       </c>
-      <c r="D48" s="35" t="s">
+      <c r="D48" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="E48" s="48"/>
-      <c r="F48" s="46"/>
-    </row>
-    <row r="49" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E48" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F48" s="42"/>
+    </row>
+    <row r="49" s="28" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="29" t="n">
         <v>47</v>
       </c>
-      <c r="B49" s="50" t="s">
+      <c r="B49" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="C49" s="31" t="n">
+      <c r="C49" s="30" t="n">
         <v>3</v>
       </c>
       <c r="D49" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="E49" s="29"/>
-      <c r="F49" s="34"/>
-    </row>
-    <row r="50" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E49" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49" s="31"/>
+    </row>
+    <row r="50" s="28" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="29" t="n">
         <v>48</v>
       </c>
-      <c r="B50" s="50" t="s">
+      <c r="B50" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="C50" s="31" t="n">
+      <c r="C50" s="30" t="n">
         <v>4</v>
       </c>
       <c r="D50" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="E50" s="29"/>
-      <c r="F50" s="34"/>
-    </row>
-    <row r="51" s="25" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="26" t="n">
+      <c r="E50" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50" s="31"/>
+    </row>
+    <row r="51" s="28" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="29" t="n">
         <v>49</v>
       </c>
-      <c r="B51" s="35" t="s">
+      <c r="B51" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="C51" s="27" t="n">
+      <c r="C51" s="30" t="n">
         <v>5</v>
       </c>
-      <c r="D51" s="35" t="s">
+      <c r="D51" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="E51" s="26"/>
-      <c r="F51" s="28"/>
-    </row>
-    <row r="52" s="25" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="37" t="n">
+      <c r="E51" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F51" s="31"/>
+    </row>
+    <row r="52" s="28" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="34" t="n">
         <v>50</v>
       </c>
-      <c r="B52" s="38" t="s">
+      <c r="B52" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="C52" s="39" t="n">
+      <c r="C52" s="36" t="n">
         <v>6</v>
       </c>
-      <c r="D52" s="38" t="s">
+      <c r="D52" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="E52" s="37"/>
-      <c r="F52" s="28"/>
-    </row>
-    <row r="53" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="33" t="n">
+      <c r="E52" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52" s="31"/>
+    </row>
+    <row r="53" s="28" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="24" t="n">
         <v>51</v>
       </c>
-      <c r="B53" s="30" t="s">
+      <c r="B53" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="C53" s="51" t="n">
+      <c r="C53" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="D53" s="52" t="s">
+      <c r="D53" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="E53" s="33"/>
-      <c r="F53" s="34"/>
-    </row>
-    <row r="54" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E53" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F53" s="31"/>
+    </row>
+    <row r="54" s="28" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="29" t="n">
         <v>52</v>
       </c>
-      <c r="B54" s="50" t="s">
+      <c r="B54" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="C54" s="31" t="n">
+      <c r="C54" s="30" t="n">
         <v>2</v>
       </c>
       <c r="D54" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="E54" s="29"/>
-      <c r="F54" s="34"/>
-    </row>
-    <row r="55" s="25" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="26" t="n">
+      <c r="E54" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F54" s="31"/>
+    </row>
+    <row r="55" s="28" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="29" t="n">
         <v>53</v>
       </c>
-      <c r="B55" s="35" t="s">
+      <c r="B55" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="C55" s="27" t="n">
+      <c r="C55" s="30" t="n">
         <v>3</v>
       </c>
-      <c r="D55" s="35" t="s">
+      <c r="D55" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="E55" s="26"/>
-      <c r="F55" s="28"/>
-    </row>
-    <row r="56" s="25" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="26" t="n">
+      <c r="E55" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F55" s="31"/>
+    </row>
+    <row r="56" s="28" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="29" t="n">
         <v>54</v>
       </c>
-      <c r="B56" s="35" t="s">
+      <c r="B56" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="C56" s="27" t="n">
+      <c r="C56" s="30" t="n">
         <v>4</v>
       </c>
-      <c r="D56" s="35" t="s">
+      <c r="D56" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="E56" s="26"/>
-      <c r="F56" s="28"/>
-    </row>
-    <row r="57" s="25" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="26" t="n">
+      <c r="E56" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F56" s="31"/>
+    </row>
+    <row r="57" s="28" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="29" t="n">
         <v>55</v>
       </c>
-      <c r="B57" s="35" t="s">
+      <c r="B57" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="C57" s="27" t="n">
+      <c r="C57" s="30" t="n">
         <v>5</v>
       </c>
-      <c r="D57" s="35" t="s">
+      <c r="D57" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="E57" s="26"/>
-      <c r="F57" s="28"/>
-    </row>
-    <row r="58" s="25" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="26" t="n">
+      <c r="E57" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F57" s="31"/>
+    </row>
+    <row r="58" s="28" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="29" t="n">
         <v>56</v>
       </c>
-      <c r="B58" s="35" t="s">
+      <c r="B58" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="C58" s="27" t="n">
+      <c r="C58" s="30" t="n">
         <v>6</v>
       </c>
-      <c r="D58" s="35" t="s">
+      <c r="D58" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="E58" s="26"/>
-      <c r="F58" s="28"/>
-    </row>
-    <row r="59" s="57" customFormat="true" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="53" t="n">
+      <c r="E58" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F58" s="31"/>
+    </row>
+    <row r="59" s="50" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="46" t="n">
         <v>57</v>
       </c>
-      <c r="B59" s="54" t="s">
+      <c r="B59" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="C59" s="55" t="n">
+      <c r="C59" s="48" t="n">
         <v>7</v>
       </c>
-      <c r="D59" s="54" t="s">
+      <c r="D59" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="E59" s="53"/>
-      <c r="F59" s="56"/>
-    </row>
-    <row r="60" s="57" customFormat="true" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="53" t="n">
+      <c r="E59" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F59" s="49"/>
+    </row>
+    <row r="60" s="50" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="46" t="n">
         <v>58</v>
       </c>
-      <c r="B60" s="54" t="s">
+      <c r="B60" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="C60" s="55" t="n">
+      <c r="C60" s="48" t="n">
         <v>8</v>
       </c>
-      <c r="D60" s="54" t="s">
+      <c r="D60" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="E60" s="53"/>
-      <c r="F60" s="56"/>
-    </row>
-    <row r="61" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E60" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F60" s="49"/>
+    </row>
+    <row r="61" s="28" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="29" t="n">
         <v>59</v>
       </c>
-      <c r="B61" s="50" t="s">
+      <c r="B61" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="C61" s="31" t="n">
+      <c r="C61" s="30" t="n">
         <v>9</v>
       </c>
-      <c r="D61" s="50" t="s">
+      <c r="D61" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="E61" s="58"/>
-      <c r="F61" s="34"/>
-    </row>
-    <row r="62" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="50" t="n">
+      <c r="E61" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F61" s="31"/>
+    </row>
+    <row r="62" s="28" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="32" t="n">
         <v>60</v>
       </c>
-      <c r="B62" s="50" t="s">
+      <c r="B62" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="C62" s="31" t="n">
+      <c r="C62" s="30" t="n">
         <v>10</v>
       </c>
       <c r="D62" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="E62" s="29"/>
-      <c r="F62" s="34"/>
-    </row>
-    <row r="63" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="33" t="n">
+      <c r="E62" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F62" s="31"/>
+    </row>
+    <row r="63" s="28" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="24" t="n">
         <v>61</v>
       </c>
-      <c r="B63" s="50" t="s">
+      <c r="B63" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="C63" s="31" t="n">
+      <c r="C63" s="30" t="n">
         <v>11</v>
       </c>
-      <c r="D63" s="52" t="s">
+      <c r="D63" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="E63" s="29"/>
-      <c r="F63" s="34"/>
-    </row>
-    <row r="64" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="5" t="n">
+      <c r="E63" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F63" s="31"/>
+    </row>
+    <row r="64" s="28" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="34" t="n">
         <v>62</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="C64" s="4" t="n">
+      <c r="C64" s="36" t="n">
         <v>12</v>
       </c>
-      <c r="D64" s="59" t="s">
+      <c r="D64" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="E64" s="5"/>
-      <c r="F64" s="34"/>
-    </row>
-    <row r="65" s="25" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="21" t="n">
+      <c r="E64" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F64" s="31"/>
+    </row>
+    <row r="65" s="28" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="24" t="n">
         <v>63</v>
       </c>
-      <c r="B65" s="22" t="s">
+      <c r="B65" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="C65" s="23" t="n">
+      <c r="C65" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="D65" s="22" t="s">
+      <c r="D65" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="E65" s="21"/>
-      <c r="F65" s="28"/>
-    </row>
-    <row r="66" s="25" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="26" t="n">
+      <c r="E65" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F65" s="31"/>
+    </row>
+    <row r="66" s="28" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="29" t="n">
         <v>64</v>
       </c>
-      <c r="B66" s="35" t="s">
+      <c r="B66" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="C66" s="27" t="n">
+      <c r="C66" s="30" t="n">
         <v>2</v>
       </c>
-      <c r="D66" s="35" t="s">
+      <c r="D66" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="E66" s="26"/>
-      <c r="F66" s="28"/>
-    </row>
-    <row r="67" s="25" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="26" t="n">
+      <c r="E66" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F66" s="31"/>
+    </row>
+    <row r="67" s="28" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="29" t="n">
         <v>65</v>
       </c>
-      <c r="B67" s="35" t="s">
+      <c r="B67" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="C67" s="27" t="n">
+      <c r="C67" s="30" t="n">
         <v>3</v>
       </c>
-      <c r="D67" s="35" t="s">
+      <c r="D67" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="E67" s="26"/>
-      <c r="F67" s="28"/>
-    </row>
-    <row r="68" s="25" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="26" t="n">
+      <c r="E67" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F67" s="31"/>
+    </row>
+    <row r="68" s="28" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="29" t="n">
         <v>66</v>
       </c>
-      <c r="B68" s="35" t="s">
+      <c r="B68" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="C68" s="27" t="n">
+      <c r="C68" s="30" t="n">
         <v>4</v>
       </c>
-      <c r="D68" s="35" t="s">
+      <c r="D68" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="E68" s="26"/>
-      <c r="F68" s="28"/>
-    </row>
-    <row r="69" s="25" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="26" t="n">
+      <c r="E68" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F68" s="31"/>
+    </row>
+    <row r="69" s="28" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="29" t="n">
         <v>67</v>
       </c>
-      <c r="B69" s="35" t="s">
+      <c r="B69" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="C69" s="27" t="n">
+      <c r="C69" s="30" t="n">
         <v>5</v>
       </c>
-      <c r="D69" s="35" t="s">
+      <c r="D69" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="E69" s="26"/>
-      <c r="F69" s="28"/>
-    </row>
-    <row r="70" s="25" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="26" t="n">
+      <c r="E69" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F69" s="31"/>
+    </row>
+    <row r="70" s="28" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="29" t="n">
         <v>68</v>
       </c>
-      <c r="B70" s="35" t="s">
+      <c r="B70" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="C70" s="27" t="n">
+      <c r="C70" s="30" t="n">
         <v>6</v>
       </c>
-      <c r="D70" s="35" t="s">
+      <c r="D70" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="E70" s="26"/>
-      <c r="F70" s="28"/>
-    </row>
-    <row r="71" s="25" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="26" t="n">
+      <c r="E70" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F70" s="31"/>
+    </row>
+    <row r="71" s="28" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="29" t="n">
         <v>69</v>
       </c>
-      <c r="B71" s="35" t="s">
+      <c r="B71" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="C71" s="27" t="n">
+      <c r="C71" s="30" t="n">
         <v>7</v>
       </c>
-      <c r="D71" s="35" t="s">
+      <c r="D71" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="E71" s="26"/>
-      <c r="F71" s="28"/>
-    </row>
-    <row r="72" s="25" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="37" t="n">
+      <c r="E71" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F71" s="31"/>
+    </row>
+    <row r="72" s="28" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="34" t="n">
         <v>70</v>
       </c>
-      <c r="B72" s="38" t="s">
+      <c r="B72" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="C72" s="39" t="n">
+      <c r="C72" s="36" t="n">
         <v>8</v>
       </c>
-      <c r="D72" s="38" t="s">
+      <c r="D72" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="E72" s="37"/>
-      <c r="F72" s="28"/>
-    </row>
-    <row r="73" s="25" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="21" t="n">
+      <c r="E72" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F72" s="31"/>
+    </row>
+    <row r="73" s="28" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="24" t="n">
         <v>71</v>
       </c>
-      <c r="B73" s="22" t="s">
+      <c r="B73" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="C73" s="23" t="n">
+      <c r="C73" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="D73" s="22" t="s">
+      <c r="D73" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="E73" s="21"/>
-      <c r="F73" s="28"/>
-    </row>
-    <row r="74" s="25" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="35" t="n">
+      <c r="E73" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F73" s="31"/>
+    </row>
+    <row r="74" s="28" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="32" t="n">
         <v>72</v>
       </c>
-      <c r="B74" s="35" t="s">
+      <c r="B74" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="C74" s="35" t="n">
+      <c r="C74" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="D74" s="35" t="s">
+      <c r="D74" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="E74" s="26"/>
-      <c r="F74" s="28"/>
-    </row>
-    <row r="75" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="33" t="n">
+      <c r="E74" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F74" s="31"/>
+    </row>
+    <row r="75" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="51" t="n">
         <v>73</v>
       </c>
-      <c r="B75" s="50" t="s">
+      <c r="B75" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="C75" s="51" t="n">
+      <c r="C75" s="53" t="n">
         <v>3</v>
       </c>
-      <c r="D75" s="32" t="s">
+      <c r="D75" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="E75" s="29"/>
-      <c r="F75" s="34"/>
-    </row>
-    <row r="76" s="25" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="26" t="n">
+      <c r="E75" s="55"/>
+      <c r="F75" s="56"/>
+    </row>
+    <row r="76" s="28" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="29" t="n">
         <v>74</v>
       </c>
-      <c r="B76" s="35" t="s">
+      <c r="B76" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="C76" s="27" t="n">
+      <c r="C76" s="30" t="n">
         <v>4</v>
       </c>
-      <c r="D76" s="35" t="s">
+      <c r="D76" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="E76" s="26"/>
-      <c r="F76" s="28"/>
-    </row>
-    <row r="77" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="29" t="n">
+      <c r="E76" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F76" s="31"/>
+    </row>
+    <row r="77" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="57" t="n">
         <v>75</v>
       </c>
-      <c r="B77" s="50" t="s">
+      <c r="B77" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="C77" s="31" t="n">
+      <c r="C77" s="58" t="n">
         <v>5</v>
       </c>
-      <c r="D77" s="32" t="s">
+      <c r="D77" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="E77" s="29"/>
-      <c r="F77" s="34"/>
-    </row>
-    <row r="78" s="25" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="26" t="n">
+      <c r="E77" s="55"/>
+      <c r="F77" s="56"/>
+    </row>
+    <row r="78" s="28" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="29" t="n">
         <v>76</v>
       </c>
-      <c r="B78" s="35" t="s">
+      <c r="B78" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="C78" s="27" t="n">
+      <c r="C78" s="30" t="n">
         <v>6</v>
       </c>
-      <c r="D78" s="35" t="s">
+      <c r="D78" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="E78" s="26"/>
-      <c r="F78" s="28"/>
-    </row>
-    <row r="79" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="5" t="n">
+      <c r="E78" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F78" s="31"/>
+    </row>
+    <row r="79" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="59" t="n">
         <v>77</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B79" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C79" s="4" t="n">
+      <c r="C79" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="D79" s="59" t="s">
+      <c r="D79" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="E79" s="5"/>
-      <c r="F79" s="34"/>
-    </row>
-    <row r="80" s="25" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="21" t="n">
+      <c r="E79" s="6"/>
+      <c r="F79" s="56"/>
+    </row>
+    <row r="80" s="28" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="24" t="n">
         <v>78</v>
       </c>
-      <c r="B80" s="22" t="s">
+      <c r="B80" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="C80" s="23" t="n">
+      <c r="C80" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="D80" s="22" t="s">
+      <c r="D80" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="E80" s="21"/>
-      <c r="F80" s="28"/>
-    </row>
-    <row r="81" s="25" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="26" t="n">
+      <c r="E80" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F80" s="31"/>
+    </row>
+    <row r="81" s="28" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="29" t="n">
         <v>79</v>
       </c>
-      <c r="B81" s="35" t="s">
+      <c r="B81" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="C81" s="27" t="n">
+      <c r="C81" s="30" t="n">
         <v>2</v>
       </c>
-      <c r="D81" s="35" t="s">
+      <c r="D81" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="E81" s="26"/>
-      <c r="F81" s="28"/>
-    </row>
-    <row r="82" s="25" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="26" t="n">
+      <c r="E81" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F81" s="31"/>
+    </row>
+    <row r="82" s="28" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="29" t="n">
         <v>80</v>
       </c>
-      <c r="B82" s="35" t="s">
+      <c r="B82" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="C82" s="27" t="n">
+      <c r="C82" s="30" t="n">
         <v>3</v>
       </c>
-      <c r="D82" s="35" t="s">
+      <c r="D82" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="E82" s="26"/>
-      <c r="F82" s="28"/>
-    </row>
-    <row r="83" s="25" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="26" t="n">
+      <c r="E82" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F82" s="31"/>
+    </row>
+    <row r="83" s="28" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="29" t="n">
         <v>81</v>
       </c>
-      <c r="B83" s="36" t="s">
+      <c r="B83" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="C83" s="27" t="n">
+      <c r="C83" s="30" t="n">
         <v>4</v>
       </c>
-      <c r="D83" s="35" t="s">
+      <c r="D83" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="E83" s="26"/>
-      <c r="F83" s="28"/>
-    </row>
-    <row r="84" s="25" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="35" t="n">
+      <c r="E83" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F83" s="31"/>
+    </row>
+    <row r="84" s="28" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="32" t="n">
         <v>82</v>
       </c>
-      <c r="B84" s="35" t="s">
+      <c r="B84" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="C84" s="35" t="n">
+      <c r="C84" s="32" t="n">
         <v>5</v>
       </c>
-      <c r="D84" s="35" t="s">
+      <c r="D84" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="E84" s="60"/>
-      <c r="F84" s="28"/>
-    </row>
-    <row r="85" s="25" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="38" t="n">
+      <c r="E84" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F84" s="31"/>
+    </row>
+    <row r="85" s="28" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="35" t="n">
         <v>83</v>
       </c>
-      <c r="B85" s="38" t="s">
+      <c r="B85" s="35" t="s">
         <v>55</v>
       </c>
       <c r="C85" s="61" t="n">
         <v>6</v>
       </c>
-      <c r="D85" s="38" t="s">
+      <c r="D85" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="E85" s="62"/>
-      <c r="F85" s="40"/>
-    </row>
-    <row r="86" s="25" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A86" s="21" t="n">
+      <c r="E85" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F85" s="37"/>
+    </row>
+    <row r="86" s="28" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A86" s="24" t="n">
         <v>84</v>
       </c>
-      <c r="B86" s="22" t="s">
+      <c r="B86" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="C86" s="23" t="n">
+      <c r="C86" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="D86" s="22" t="s">
+      <c r="D86" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="E86" s="21"/>
-      <c r="F86" s="24"/>
-    </row>
-    <row r="87" s="25" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="26" t="n">
+      <c r="E86" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F86" s="27"/>
+    </row>
+    <row r="87" s="28" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="29" t="n">
         <v>85</v>
       </c>
-      <c r="B87" s="35" t="s">
+      <c r="B87" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="C87" s="27" t="n">
+      <c r="C87" s="30" t="n">
         <v>2</v>
       </c>
-      <c r="D87" s="35" t="s">
+      <c r="D87" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="E87" s="26"/>
-      <c r="F87" s="28"/>
-    </row>
-    <row r="88" s="25" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="26" t="n">
+      <c r="E87" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F87" s="31"/>
+    </row>
+    <row r="88" s="28" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="29" t="n">
         <v>86</v>
       </c>
-      <c r="B88" s="35" t="s">
+      <c r="B88" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="C88" s="27" t="n">
+      <c r="C88" s="30" t="n">
         <v>3</v>
       </c>
-      <c r="D88" s="35" t="s">
+      <c r="D88" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="E88" s="26"/>
-      <c r="F88" s="28"/>
-    </row>
-    <row r="89" s="25" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="26" t="n">
+      <c r="E88" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F88" s="31"/>
+    </row>
+    <row r="89" s="28" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="29" t="n">
         <v>87</v>
       </c>
-      <c r="B89" s="35" t="s">
+      <c r="B89" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="C89" s="27" t="n">
+      <c r="C89" s="30" t="n">
         <v>4</v>
       </c>
-      <c r="D89" s="35" t="s">
+      <c r="D89" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="E89" s="26"/>
-      <c r="F89" s="28"/>
-    </row>
-    <row r="90" s="25" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="26" t="n">
+      <c r="E89" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F89" s="31"/>
+    </row>
+    <row r="90" s="28" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="29" t="n">
         <v>88</v>
       </c>
-      <c r="B90" s="35" t="s">
+      <c r="B90" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="C90" s="27" t="n">
+      <c r="C90" s="30" t="n">
         <v>5</v>
       </c>
-      <c r="D90" s="35" t="s">
+      <c r="D90" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="E90" s="26"/>
-      <c r="F90" s="28"/>
-    </row>
-    <row r="91" s="25" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="26" t="n">
+      <c r="E90" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F90" s="31"/>
+    </row>
+    <row r="91" s="28" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="29" t="n">
         <v>89</v>
       </c>
-      <c r="B91" s="35" t="s">
+      <c r="B91" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="C91" s="27" t="n">
+      <c r="C91" s="30" t="n">
         <v>6</v>
       </c>
-      <c r="D91" s="35" t="s">
+      <c r="D91" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="E91" s="26"/>
-      <c r="F91" s="28"/>
-    </row>
-    <row r="92" s="25" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="26" t="n">
+      <c r="E91" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F91" s="31"/>
+    </row>
+    <row r="92" s="28" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="29" t="n">
         <v>90</v>
       </c>
-      <c r="B92" s="36" t="s">
+      <c r="B92" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="C92" s="27" t="n">
+      <c r="C92" s="30" t="n">
         <v>7</v>
       </c>
-      <c r="D92" s="35" t="s">
+      <c r="D92" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="E92" s="26"/>
-      <c r="F92" s="28"/>
-    </row>
-    <row r="93" s="25" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="26" t="n">
+      <c r="E92" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F92" s="31"/>
+    </row>
+    <row r="93" s="28" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="29" t="n">
         <v>91</v>
       </c>
-      <c r="B93" s="36" t="s">
+      <c r="B93" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="C93" s="27" t="n">
+      <c r="C93" s="30" t="n">
         <v>8</v>
       </c>
-      <c r="D93" s="35" t="s">
+      <c r="D93" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="E93" s="26"/>
-      <c r="F93" s="28"/>
-    </row>
-    <row r="94" s="25" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="36" t="n">
+      <c r="E93" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F93" s="31"/>
+    </row>
+    <row r="94" s="28" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="33" t="n">
         <v>92</v>
       </c>
-      <c r="B94" s="36" t="s">
+      <c r="B94" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="C94" s="36" t="n">
+      <c r="C94" s="33" t="n">
         <v>9</v>
       </c>
-      <c r="D94" s="35" t="s">
+      <c r="D94" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="E94" s="26"/>
-      <c r="F94" s="28"/>
-    </row>
-    <row r="95" s="25" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="37" t="n">
+      <c r="E94" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F94" s="31"/>
+    </row>
+    <row r="95" s="28" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="34" t="n">
         <v>93</v>
       </c>
-      <c r="B95" s="38" t="s">
+      <c r="B95" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="C95" s="39" t="n">
-        <v>10</v>
-      </c>
-      <c r="D95" s="38" t="s">
+      <c r="C95" s="36" t="n">
+        <v>10</v>
+      </c>
+      <c r="D95" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="E95" s="37"/>
-      <c r="F95" s="40"/>
-    </row>
-    <row r="96" s="25" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="21" t="n">
+      <c r="E95" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F95" s="37"/>
+    </row>
+    <row r="96" s="28" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="24" t="n">
         <v>94</v>
       </c>
-      <c r="B96" s="22" t="s">
+      <c r="B96" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="C96" s="23" t="n">
+      <c r="C96" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="D96" s="22" t="s">
+      <c r="D96" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="E96" s="21"/>
-      <c r="F96" s="24"/>
-    </row>
-    <row r="97" s="25" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="26" t="n">
+      <c r="E96" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F96" s="27"/>
+    </row>
+    <row r="97" s="28" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="29" t="n">
         <v>95</v>
       </c>
-      <c r="B97" s="36" t="s">
+      <c r="B97" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="C97" s="27" t="n">
+      <c r="C97" s="30" t="n">
         <v>2</v>
       </c>
-      <c r="D97" s="35" t="s">
+      <c r="D97" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="E97" s="26"/>
-      <c r="F97" s="28"/>
-    </row>
-    <row r="98" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="29" t="n">
+      <c r="E97" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F97" s="31"/>
+    </row>
+    <row r="98" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="57" t="n">
         <v>96</v>
       </c>
-      <c r="B98" s="50" t="s">
+      <c r="B98" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="C98" s="31" t="n">
+      <c r="C98" s="58" t="n">
         <v>3</v>
       </c>
-      <c r="D98" s="32" t="s">
+      <c r="D98" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="E98" s="29"/>
-      <c r="F98" s="34"/>
-    </row>
-    <row r="99" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="29" t="n">
+      <c r="E98" s="55"/>
+      <c r="F98" s="56"/>
+    </row>
+    <row r="99" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="57" t="n">
         <v>97</v>
       </c>
-      <c r="B99" s="50" t="s">
+      <c r="B99" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="C99" s="31" t="n">
+      <c r="C99" s="58" t="n">
         <v>4</v>
       </c>
-      <c r="D99" s="32" t="s">
+      <c r="D99" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="E99" s="29"/>
-      <c r="F99" s="34"/>
-    </row>
-    <row r="100" s="25" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="26" t="n">
+      <c r="E99" s="55"/>
+      <c r="F99" s="56"/>
+    </row>
+    <row r="100" s="28" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="29" t="n">
         <v>98</v>
       </c>
-      <c r="B100" s="36" t="s">
+      <c r="B100" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="C100" s="27" t="n">
+      <c r="C100" s="30" t="n">
         <v>5</v>
       </c>
-      <c r="D100" s="35" t="s">
+      <c r="D100" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="E100" s="26"/>
-      <c r="F100" s="28"/>
-    </row>
-    <row r="101" s="25" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="26" t="n">
+      <c r="E100" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F100" s="31"/>
+    </row>
+    <row r="101" s="28" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="29" t="n">
         <v>99</v>
       </c>
-      <c r="B101" s="36" t="s">
+      <c r="B101" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="C101" s="27" t="n">
+      <c r="C101" s="30" t="n">
         <v>6</v>
       </c>
-      <c r="D101" s="35" t="s">
+      <c r="D101" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="E101" s="26"/>
-      <c r="F101" s="28"/>
-    </row>
-    <row r="102" s="25" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="26" t="n">
+      <c r="E101" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F101" s="31"/>
+    </row>
+    <row r="102" s="28" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="29" t="n">
         <v>100</v>
       </c>
-      <c r="B102" s="35" t="s">
+      <c r="B102" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="C102" s="27" t="n">
+      <c r="C102" s="30" t="n">
         <v>7</v>
       </c>
-      <c r="D102" s="35" t="s">
+      <c r="D102" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="E102" s="26"/>
-      <c r="F102" s="28"/>
-    </row>
-    <row r="103" s="25" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="26" t="n">
+      <c r="E102" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F102" s="31"/>
+    </row>
+    <row r="103" s="28" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="29" t="n">
         <v>101</v>
       </c>
-      <c r="B103" s="35" t="s">
+      <c r="B103" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="C103" s="27" t="n">
+      <c r="C103" s="30" t="n">
         <v>8</v>
       </c>
-      <c r="D103" s="35" t="s">
+      <c r="D103" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="E103" s="26"/>
-      <c r="F103" s="28"/>
-    </row>
-    <row r="104" s="67" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="63" t="n">
+      <c r="E103" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F103" s="31"/>
+    </row>
+    <row r="104" s="28" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="29" t="n">
         <v>102</v>
       </c>
-      <c r="B104" s="64" t="s">
+      <c r="B104" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="C104" s="65" t="n">
+      <c r="C104" s="30" t="n">
         <v>9</v>
       </c>
-      <c r="D104" s="64" t="s">
+      <c r="D104" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="E104" s="63"/>
-      <c r="F104" s="66"/>
-    </row>
-    <row r="105" s="67" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="63" t="n">
+      <c r="E104" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F104" s="31"/>
+    </row>
+    <row r="105" s="28" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="29" t="n">
         <v>103</v>
       </c>
-      <c r="B105" s="64" t="s">
+      <c r="B105" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="C105" s="65" t="n">
-        <v>10</v>
-      </c>
-      <c r="D105" s="64" t="s">
+      <c r="C105" s="30" t="n">
+        <v>10</v>
+      </c>
+      <c r="D105" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="E105" s="63"/>
-      <c r="F105" s="66"/>
-    </row>
-    <row r="106" s="25" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="26" t="n">
+      <c r="E105" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F105" s="31"/>
+    </row>
+    <row r="106" s="28" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="29" t="n">
         <v>104</v>
       </c>
-      <c r="B106" s="36" t="s">
+      <c r="B106" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="C106" s="27" t="n">
+      <c r="C106" s="30" t="n">
         <v>11</v>
       </c>
-      <c r="D106" s="35" t="s">
+      <c r="D106" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="E106" s="26"/>
-      <c r="F106" s="28"/>
-    </row>
-    <row r="107" s="25" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="37" t="n">
+      <c r="E106" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F106" s="31"/>
+    </row>
+    <row r="107" s="28" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="34" t="n">
         <v>105</v>
       </c>
-      <c r="B107" s="38" t="s">
+      <c r="B107" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="C107" s="39" t="n">
+      <c r="C107" s="36" t="n">
         <v>12</v>
       </c>
-      <c r="D107" s="38" t="s">
+      <c r="D107" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="E107" s="39"/>
-      <c r="F107" s="40"/>
-    </row>
-    <row r="108" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E107" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F107" s="37"/>
+    </row>
+    <row r="108" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="0"/>
-      <c r="E108" s="1"/>
+      <c r="E108" s="62"/>
       <c r="G108" s="1"/>
     </row>
-    <row r="109" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
-      <c r="E109" s="1"/>
+      <c r="E109" s="62"/>
       <c r="G109" s="1"/>
     </row>
-    <row r="110" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B110" s="1"/>
-      <c r="C110" s="68"/>
-      <c r="D110" s="69" t="s">
+      <c r="C110" s="63"/>
+      <c r="D110" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="E110" s="1"/>
+      <c r="E110" s="62"/>
       <c r="G110" s="1"/>
     </row>
-    <row r="111" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C111" s="70"/>
+    <row r="111" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C111" s="65"/>
       <c r="D111" s="1" t="s">
         <v>84</v>
       </c>
@@ -2620,7 +2797,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="73:74 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
